--- a/4503 JP.xlsx
+++ b/4503 JP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAC2534-729E-4155-BC44-75517CE5ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E342AA-35A9-48A8-91B7-5464CA5561D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24030" yWindow="210" windowWidth="27060" windowHeight="20445" xr2:uid="{A54D3B08-E225-4A58-B8D9-88B8FEFFB13D}"/>
+    <workbookView xWindow="18975" yWindow="1875" windowWidth="32715" windowHeight="15915" xr2:uid="{A54D3B08-E225-4A58-B8D9-88B8FEFFB13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Price JPY</t>
   </si>
@@ -204,19 +204,85 @@
     <t>Betanis</t>
   </si>
   <si>
-    <t>CEO: Kenji Yasukawa</t>
-  </si>
-  <si>
     <t>ASP3082</t>
   </si>
   <si>
     <t>KRAS G12D PROTAC</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Xtandi (enzalutamide)</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>CRPC</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>CEO: Naoki Okamura replacing Kenji Yasukawa</t>
+  </si>
+  <si>
+    <t>Betanis/Myrbetriq/Betmiga</t>
+  </si>
+  <si>
+    <t>Repatha</t>
+  </si>
+  <si>
+    <t>Linzess</t>
+  </si>
+  <si>
+    <t>Blincyto</t>
+  </si>
+  <si>
+    <t>Evenity</t>
+  </si>
+  <si>
+    <t>Cimzia</t>
+  </si>
+  <si>
+    <t>Padcev (efortumab vedotin)</t>
+  </si>
+  <si>
+    <t>Xospata (gilteritinib)</t>
+  </si>
+  <si>
+    <t>SGEN</t>
+  </si>
+  <si>
+    <t>Evrenzo (roxadustat)</t>
+  </si>
+  <si>
+    <t>FGEN</t>
+  </si>
+  <si>
+    <t>AT845</t>
+  </si>
+  <si>
+    <t>Pompe</t>
+  </si>
+  <si>
+    <t>AT132</t>
+  </si>
+  <si>
+    <t>XLMTM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -233,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -241,24 +307,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -280,16 +459,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25977</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64943</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25977</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108239</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -304,8 +483,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7316932" y="64943"/>
-          <a:ext cx="0" cy="6611216"/>
+          <a:off x="8070273" y="0"/>
+          <a:ext cx="0" cy="7892762"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -628,15 +807,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE6F844-253E-42C7-896B-9951B83D0D9E}">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -645,6 +843,19 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -656,6 +867,17 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -666,11 +888,20 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <f>Model!L27</f>
+        <f>Model!L26</f>
         <v>495288</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -678,11 +909,22 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <f>+Model!L39</f>
+        <f>+Model!L38</f>
         <v>288002</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -690,6 +932,15 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -698,18 +949,181 @@
         <v>3565522.91</v>
       </c>
     </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="K9" s="1"/>
+    </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -719,13 +1133,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C752DD14-34D2-4EF9-B844-A3F2BC725485}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -745,41 +1159,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
+    <row r="2" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="21">
         <v>44012</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="21">
         <v>44104</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="21">
         <v>44196</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="21">
         <v>44286</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="21">
         <v>44377</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="21">
         <v>44469</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="21">
         <v>44561</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="21">
         <v>44651</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="20">
         <v>44742</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="20">
         <v>44834</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="20">
         <v>44926</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="20">
         <v>45016</v>
       </c>
     </row>
@@ -825,133 +1239,145 @@
       <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>162400</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <f>332000-K4</f>
         <v>169600</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="M4" s="3">
+        <v>179800</v>
+      </c>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>10600</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <f>20800-K5</f>
         <v>10200</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="3">
+        <v>12300</v>
+      </c>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>10500</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <f>23500-K6</f>
         <v>13000</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="M6" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>700</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <f>1500-K7</f>
         <v>800</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="M7" s="3">
+        <v>900</v>
+      </c>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>47900</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <f>100400-K8</f>
         <v>52500</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="3">
+        <v>51300</v>
+      </c>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>51800</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <f>93400-K9</f>
         <v>41600</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="M9" s="3">
+        <v>47700</v>
+      </c>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K10" s="2"/>
@@ -963,10 +1389,10 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1">
         <v>326143</v>
       </c>
@@ -974,8 +1400,11 @@
         <f>651666-G11</f>
         <v>325523</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="3">
+        <f>992293-H11-G11</f>
+        <v>340627</v>
+      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="1">
         <v>381791</v>
       </c>
@@ -983,15 +1412,19 @@
         <f>762185-K11</f>
         <v>380394</v>
       </c>
+      <c r="M11" s="1">
+        <f>1164365-L11-K11</f>
+        <v>402180</v>
+      </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1">
         <v>62231</v>
       </c>
@@ -999,8 +1432,11 @@
         <f>124736-G12</f>
         <v>62505</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="3">
+        <f>194094-H12-G12</f>
+        <v>69358</v>
+      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="1">
         <v>88870</v>
       </c>
@@ -1008,15 +1444,19 @@
         <f>151651-K12</f>
         <v>62781</v>
       </c>
+      <c r="M12" s="1">
+        <f>226073-L12-K12</f>
+        <v>74422</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1">
         <f>+G11-G12</f>
         <v>263912</v>
@@ -1025,8 +1465,11 @@
         <f>+H11-H12</f>
         <v>263018</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="1">
+        <f>+I11-I12</f>
+        <v>271269</v>
+      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="1">
         <f>+K11-K12</f>
         <v>292921</v>
@@ -1035,15 +1478,19 @@
         <f>+L11-L12</f>
         <v>317613</v>
       </c>
+      <c r="M13" s="1">
+        <f>+M11-M12</f>
+        <v>327758</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1">
         <v>137109</v>
       </c>
@@ -1051,8 +1498,11 @@
         <f>270506-G14</f>
         <v>133397</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="3">
+        <f>406420-H14-G14</f>
+        <v>135914</v>
+      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="1">
         <v>153396</v>
       </c>
@@ -1060,15 +1510,19 @@
         <f>307956-K14</f>
         <v>154560</v>
       </c>
+      <c r="M14" s="1">
+        <f>470977-L14-K14</f>
+        <v>163021</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="1">
         <v>58313</v>
       </c>
@@ -1076,8 +1530,11 @@
         <f>119060-G15</f>
         <v>60747</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="3">
+        <f>177648-H15-G15</f>
+        <v>58588</v>
+      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="1">
         <v>74007</v>
       </c>
@@ -1085,15 +1542,19 @@
         <f>139177-K15</f>
         <v>65170</v>
       </c>
+      <c r="M15" s="1">
+        <f>206052-L15-K15</f>
+        <v>66875</v>
+      </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1">
         <f>+G14+G15</f>
         <v>195422</v>
@@ -1102,8 +1563,11 @@
         <f>+H14+H15</f>
         <v>194144</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="1">
+        <f>+I14+I15</f>
+        <v>194502</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="1">
         <f t="shared" ref="K16" si="0">+K14+K15</f>
         <v>227403</v>
@@ -1112,15 +1576,19 @@
         <f>+L14+L15</f>
         <v>219730</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="1">
+        <f>+M14+M15</f>
+        <v>229896</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="1">
         <f>+G13-G16</f>
         <v>68490</v>
@@ -1129,8 +1597,11 @@
         <f>+H13-H16</f>
         <v>68874</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="1">
+        <f>+I13-I16</f>
+        <v>76767</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="1">
         <f t="shared" ref="K17" si="1">+K13-K16</f>
         <v>65518</v>
@@ -1139,367 +1610,458 @@
         <f>+L13-L16</f>
         <v>97883</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="1">
+        <f>+M13-M16</f>
+        <v>97862</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
         <f>403-27133+1457-1717+292</f>
         <v>-26698</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <f>2847-37972+1888-2972+308-G18</f>
         <v>-9203</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="1">
         <f>350+16291-38436+927-2396</f>
         <v>-23264</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="3">
         <f>16250-41743+4493-3904+1779-K18</f>
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <f>+G17+G18</f>
         <v>41792</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <f>+H17+H18</f>
         <v>59671</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5">
+      <c r="I19" s="3">
+        <f>+I17+I18</f>
+        <v>76767</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
         <f>+K17+K18</f>
         <v>42254</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="3">
         <f>+L17+L18</f>
         <v>98022</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="3">
+        <f>+M17+M18</f>
+        <v>97862</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
         <v>5144</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <f>17476-G20</f>
         <v>12332</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="3">
+        <f>34908-H20-G20</f>
+        <v>17432</v>
+      </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="1">
         <v>6867</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="3">
         <f>24046-K20</f>
         <v>17179</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="1">
+        <f>35399-L20-K20</f>
+        <v>11353</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
         <f>+G19-G20</f>
         <v>36648</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <f>+H19-H20</f>
         <v>47339</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5">
+      <c r="I21" s="3">
+        <f>+I19-I20</f>
+        <v>59335</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
         <f>+K19-K20</f>
         <v>35387</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="3">
         <f>+L19-L20</f>
         <v>80843</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <f>+M19-M20</f>
+        <v>86509</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="4">
         <f>+K11/G11-1</f>
         <v>0.17062454199538246</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="4">
         <f>+L11/H11-1</f>
         <v>0.1685625900474006</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="4">
+        <f>+M11/I11-1</f>
+        <v>0.18070499402572304</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <f>+G13/G11</f>
         <v>0.8091910603630923</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <f>+H13/H11</f>
         <v>0.8079859180457295</v>
       </c>
-      <c r="K24" s="6">
+      <c r="I24" s="4">
+        <f>+I13/I11</f>
+        <v>0.79638137904511386</v>
+      </c>
+      <c r="K24" s="4">
         <f>+K13/K11</f>
         <v>0.76722866699319781</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="4">
         <f>+L13/L11</f>
         <v>0.83495796463666616</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="M24" s="4">
+        <f>+M13/M11</f>
+        <v>0.81495350340643491</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="L27" s="1">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="1">
         <f>361073+31947+87952+14316</f>
         <v>495288</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="1">
+        <f>381816+31480</f>
+        <v>413296</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="1">
+        <v>33981</v>
+      </c>
+      <c r="M27" s="1">
+        <v>31864</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="L28" s="1">
-        <v>33981</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="L29" s="1">
         <f>11022+96461</f>
         <v>107483</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="M28" s="1">
+        <v>93225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="L30" s="1">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" s="1">
         <f>452485+26688</f>
         <v>479173</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="1">
+        <v>451275</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" s="1">
+        <v>168636</v>
+      </c>
+      <c r="M30" s="1">
+        <v>163221</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
       <c r="L31" s="1">
-        <v>168636</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>11823</v>
+      </c>
+      <c r="M31" s="1">
+        <v>10910</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
       <c r="L32" s="1">
-        <v>11823</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="L33" s="1">
         <f>653629+353095</f>
         <v>1006724</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="1">
+        <f>324068+616538</f>
+        <v>940606</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="1">
+        <v>280552</v>
+      </c>
+      <c r="M33" s="1">
+        <v>269106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+        <v>36</v>
+      </c>
       <c r="L34" s="1">
-        <v>280552</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" s="1">
-        <f>SUM(L27:L34)</f>
+        <f>SUM(L26:L33)</f>
         <v>2583660</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="1">
+        <f>SUM(M26:M33)</f>
+        <v>2373503</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1649518</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1570424</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L37" s="1">
-        <v>1649518</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+        <v>369011</v>
+      </c>
+      <c r="M37" s="1">
+        <v>360196</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L38" s="1">
-        <v>369011</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" s="1">
         <f>205611+82391</f>
         <v>288002</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+      <c r="M38" s="1">
+        <f>148738+180413</f>
+        <v>329151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L39" s="1">
         <f>14012+3653</f>
         <v>17665</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L40" s="1">
         <f>26246+6104</f>
         <v>32350</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="1">
+        <v>146533</v>
+      </c>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L42" s="1">
-        <v>146533</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="1">
         <f>38641+5023</f>
         <v>43664</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="1">
+        <v>37337</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="1">
+        <v>36918</v>
+      </c>
+      <c r="M43" s="1">
+        <v>37092</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L44" s="1">
-        <v>36918</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L45" s="1">
-        <f>SUM(L37:L44)</f>
+        <f>SUM(L36:L43)</f>
         <v>2583661</v>
+      </c>
+      <c r="M44" s="1">
+        <f>SUM(M36:M43)</f>
+        <v>2334200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/4503 JP.xlsx
+++ b/4503 JP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E342AA-35A9-48A8-91B7-5464CA5561D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B0BC3-1CD2-4E87-946D-73AC3C524D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="1875" windowWidth="32715" windowHeight="15915" xr2:uid="{A54D3B08-E225-4A58-B8D9-88B8FEFFB13D}"/>
+    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" xr2:uid="{A54D3B08-E225-4A58-B8D9-88B8FEFFB13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>Price JPY</t>
   </si>
@@ -274,19 +274,66 @@
   </si>
   <si>
     <t>XLMTM</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Izervay</t>
+  </si>
+  <si>
+    <t>Veozah</t>
+  </si>
+  <si>
+    <t>Vyloy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -394,10 +441,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,7 +456,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -422,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -434,16 +481,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{98634D8F-39B6-4BE4-B257-BA66D5F62BF9}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,14 +515,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>8659</xdr:colOff>
+      <xdr:colOff>3216</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>8659</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>3216</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>43296</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -483,8 +538,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8070273" y="0"/>
-          <a:ext cx="0" cy="7892762"/>
+          <a:off x="8058645" y="0"/>
+          <a:ext cx="0" cy="7881010"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -511,9 +566,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -551,7 +606,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -657,7 +712,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -799,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -809,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE6F844-253E-42C7-896B-9951B83D0D9E}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -819,43 +874,45 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>2070</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -863,27 +920,27 @@
         <v>1822.6130000000001</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>3772808.91</v>
+        <v>3266122.4960000003</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -891,156 +948,150 @@
       <c r="B5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <f>Model!L26</f>
-        <v>495288</v>
+        <v>471543</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <f>+Model!L38</f>
-        <v>288002</v>
+        <v>1202652</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>3565522.91</v>
+        <v>3997231.4960000003</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
       <c r="J15" t="s">
         <v>63</v>
       </c>
@@ -1049,81 +1100,48 @@
       <c r="B16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,13 +1151,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C752DD14-34D2-4EF9-B844-A3F2BC725485}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1152,52 +1170,85 @@
     <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="2"/>
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="21">
+    <row r="2" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="20">
         <v>44012</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>44104</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>44196</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>44286</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>44377</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="20">
         <v>44469</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>44561</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="20">
         <v>44651</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>44742</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>44834</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <v>44926</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>45016</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="19">
+        <f>+K2+365</f>
+        <v>45107</v>
+      </c>
+      <c r="P2" s="19">
+        <f>+L2+365</f>
+        <v>45199</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>+M2+365</f>
+        <v>45291</v>
+      </c>
+      <c r="R2" s="19">
+        <f>+N2+366</f>
+        <v>45382</v>
+      </c>
+      <c r="S2" s="19">
+        <f>+O2+366</f>
+        <v>45473</v>
+      </c>
+      <c r="T2" s="19">
+        <f>+P2+366</f>
+        <v>45565</v>
+      </c>
+      <c r="U2" s="19">
+        <f>+Q2+366</f>
+        <v>45657</v>
+      </c>
+      <c r="V2" s="19">
+        <f>+R2+365</f>
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1234,8 +1285,32 @@
       <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1258,8 +1333,14 @@
         <v>179800</v>
       </c>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="1">
+        <v>174100</v>
+      </c>
+      <c r="S4" s="1">
+        <v>224200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1282,10 +1363,16 @@
         <v>12300</v>
       </c>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="1">
+        <v>15200</v>
+      </c>
+      <c r="S5" s="1">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1295,21 +1382,20 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>10500</v>
-      </c>
-      <c r="L6" s="3">
-        <f>23500-K6</f>
-        <v>13000</v>
-      </c>
-      <c r="M6" s="3">
-        <v>12800</v>
-      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1319,21 +1405,20 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>700</v>
-      </c>
-      <c r="L7" s="3">
-        <f>1500-K7</f>
-        <v>800</v>
-      </c>
-      <c r="M7" s="3">
-        <v>900</v>
-      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="1">
+        <v>600</v>
+      </c>
+      <c r="S7" s="1">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1343,21 +1428,20 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>47900</v>
-      </c>
-      <c r="L8" s="3">
-        <f>100400-K8</f>
-        <v>52500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>51300</v>
-      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1368,489 +1452,609 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
-        <v>51800</v>
+        <v>10500</v>
       </c>
       <c r="L9" s="3">
-        <f>93400-K9</f>
-        <v>41600</v>
+        <f>23500-K9</f>
+        <v>13000</v>
       </c>
       <c r="M9" s="3">
-        <v>47700</v>
+        <v>12800</v>
       </c>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="1">
+        <v>13000</v>
+      </c>
+      <c r="S9" s="1">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>700</v>
+      </c>
+      <c r="L10" s="3">
+        <f>1500-K10</f>
+        <v>800</v>
+      </c>
+      <c r="M10" s="3">
+        <v>900</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="1">
-        <v>326143</v>
-      </c>
-      <c r="H11" s="1">
-        <f>651666-G11</f>
-        <v>325523</v>
-      </c>
-      <c r="I11" s="3">
-        <f>992293-H11-G11</f>
-        <v>340627</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="1">
-        <v>381791</v>
-      </c>
-      <c r="L11" s="1">
-        <f>762185-K11</f>
-        <v>380394</v>
-      </c>
-      <c r="M11" s="1">
-        <f>1164365-L11-K11</f>
-        <v>402180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="3">
+        <v>47900</v>
+      </c>
+      <c r="L11" s="3">
+        <f>100400-K11</f>
+        <v>52500</v>
+      </c>
+      <c r="M11" s="3">
+        <v>51300</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="1">
+        <v>49100</v>
+      </c>
+      <c r="S11" s="1">
+        <v>53900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="1">
-        <v>62231</v>
-      </c>
-      <c r="H12" s="1">
-        <f>124736-G12</f>
-        <v>62505</v>
-      </c>
-      <c r="I12" s="3">
-        <f>194094-H12-G12</f>
-        <v>69358</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="1">
-        <v>88870</v>
-      </c>
-      <c r="L12" s="1">
-        <f>151651-K12</f>
-        <v>62781</v>
-      </c>
-      <c r="M12" s="1">
-        <f>226073-L12-K12</f>
-        <v>74422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1">
-        <f>+G11-G12</f>
-        <v>263912</v>
-      </c>
-      <c r="H13" s="1">
-        <f>+H11-H12</f>
-        <v>263018</v>
-      </c>
-      <c r="I13" s="1">
-        <f>+I11-I12</f>
-        <v>271269</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="1">
-        <f>+K11-K12</f>
-        <v>292921</v>
-      </c>
-      <c r="L13" s="1">
-        <f>+L11-L12</f>
-        <v>317613</v>
-      </c>
-      <c r="M13" s="1">
-        <f>+M11-M12</f>
-        <v>327758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1">
-        <v>137109</v>
-      </c>
-      <c r="H14" s="1">
-        <f>270506-G14</f>
-        <v>133397</v>
-      </c>
-      <c r="I14" s="3">
-        <f>406420-H14-G14</f>
-        <v>135914</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="1">
-        <v>153396</v>
-      </c>
-      <c r="L14" s="1">
-        <f>307956-K14</f>
-        <v>154560</v>
-      </c>
-      <c r="M14" s="1">
-        <f>470977-L14-K14</f>
-        <v>163021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="3">
+        <v>51800</v>
+      </c>
+      <c r="L12" s="3">
+        <f>93400-K12</f>
+        <v>41600</v>
+      </c>
+      <c r="M12" s="3">
+        <v>47700</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="1">
+        <v>49200</v>
+      </c>
+      <c r="S12" s="1">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21">
+        <v>326143</v>
+      </c>
+      <c r="H14" s="21">
+        <f>651666-G14</f>
+        <v>325523</v>
+      </c>
+      <c r="I14" s="22">
+        <f>992293-H14-G14</f>
+        <v>340627</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21">
+        <v>381791</v>
+      </c>
+      <c r="L14" s="21">
+        <f>762185-K14</f>
+        <v>380394</v>
+      </c>
+      <c r="M14" s="21">
+        <f>1164365-L14-K14</f>
+        <v>402180</v>
+      </c>
+      <c r="O14" s="21">
+        <v>374990</v>
+      </c>
+      <c r="S14" s="21">
+        <v>473124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1">
-        <v>58313</v>
+        <v>62231</v>
       </c>
       <c r="H15" s="1">
-        <f>119060-G15</f>
-        <v>60747</v>
+        <f>124736-G15</f>
+        <v>62505</v>
       </c>
       <c r="I15" s="3">
-        <f>177648-H15-G15</f>
-        <v>58588</v>
+        <f>194094-H15-G15</f>
+        <v>69358</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="1">
-        <v>74007</v>
+        <v>88870</v>
       </c>
       <c r="L15" s="1">
-        <f>139177-K15</f>
-        <v>65170</v>
+        <f>151651-K15</f>
+        <v>62781</v>
       </c>
       <c r="M15" s="1">
-        <f>206052-L15-K15</f>
-        <v>66875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>226073-L15-K15</f>
+        <v>74422</v>
+      </c>
+      <c r="O15" s="1">
+        <v>68947</v>
+      </c>
+      <c r="S15" s="1">
+        <v>91136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1">
-        <f>+G14+G15</f>
-        <v>195422</v>
+        <f>+G14-G15</f>
+        <v>263912</v>
       </c>
       <c r="H16" s="1">
-        <f>+H14+H15</f>
-        <v>194144</v>
+        <f>+H14-H15</f>
+        <v>263018</v>
       </c>
       <c r="I16" s="1">
-        <f>+I14+I15</f>
-        <v>194502</v>
+        <f>+I14-I15</f>
+        <v>271269</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="1">
-        <f t="shared" ref="K16" si="0">+K14+K15</f>
-        <v>227403</v>
+        <f>+K14-K15</f>
+        <v>292921</v>
       </c>
       <c r="L16" s="1">
-        <f>+L14+L15</f>
-        <v>219730</v>
+        <f>+L14-L15</f>
+        <v>317613</v>
       </c>
       <c r="M16" s="1">
-        <f>+M14+M15</f>
-        <v>229896</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+M14-M15</f>
+        <v>327758</v>
+      </c>
+      <c r="O16" s="1">
+        <f>+O14-O15</f>
+        <v>306043</v>
+      </c>
+      <c r="S16" s="1">
+        <f>+S14-S15</f>
+        <v>381988</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1">
-        <f>+G13-G16</f>
-        <v>68490</v>
+        <v>137109</v>
       </c>
       <c r="H17" s="1">
-        <f>+H13-H16</f>
-        <v>68874</v>
-      </c>
-      <c r="I17" s="1">
-        <f>+I13-I16</f>
-        <v>76767</v>
+        <f>270506-G17</f>
+        <v>133397</v>
+      </c>
+      <c r="I17" s="3">
+        <f>406420-H17-G17</f>
+        <v>135914</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="1">
-        <f t="shared" ref="K17" si="1">+K13-K16</f>
-        <v>65518</v>
+        <v>153396</v>
       </c>
       <c r="L17" s="1">
-        <f>+L13-L16</f>
-        <v>97883</v>
+        <f>307956-K17</f>
+        <v>154560</v>
       </c>
       <c r="M17" s="1">
-        <f>+M13-M16</f>
-        <v>97862</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>470977-L17-K17</f>
+        <v>163021</v>
+      </c>
+      <c r="O17" s="1">
+        <v>168182</v>
+      </c>
+      <c r="S17" s="1">
+        <v>206877</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <f>403-27133+1457-1717+292</f>
-        <v>-26698</v>
-      </c>
-      <c r="H18" s="3">
-        <f>2847-37972+1888-2972+308-G18</f>
-        <v>-9203</v>
-      </c>
-      <c r="I18" s="3"/>
+      <c r="G18" s="1">
+        <v>58313</v>
+      </c>
+      <c r="H18" s="1">
+        <f>119060-G18</f>
+        <v>60747</v>
+      </c>
+      <c r="I18" s="3">
+        <f>177648-H18-G18</f>
+        <v>58588</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="1">
-        <f>350+16291-38436+927-2396</f>
-        <v>-23264</v>
-      </c>
-      <c r="L18" s="3">
-        <f>16250-41743+4493-3904+1779-K18</f>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>74007</v>
+      </c>
+      <c r="L18" s="1">
+        <f>139177-K18</f>
+        <v>65170</v>
+      </c>
+      <c r="M18" s="1">
+        <f>206052-L18-K18</f>
+        <v>66875</v>
+      </c>
+      <c r="O18" s="1">
+        <v>64592</v>
+      </c>
+      <c r="S18" s="1">
+        <v>86821</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <f>+G17+G18</f>
-        <v>41792</v>
-      </c>
-      <c r="H19" s="3">
+        <v>195422</v>
+      </c>
+      <c r="H19" s="1">
         <f>+H17+H18</f>
-        <v>59671</v>
-      </c>
-      <c r="I19" s="3">
+        <v>194144</v>
+      </c>
+      <c r="I19" s="1">
         <f>+I17+I18</f>
-        <v>76767</v>
+        <v>194502</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <f>+K17+K18</f>
-        <v>42254</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="K19" s="1">
+        <f t="shared" ref="K19" si="0">+K17+K18</f>
+        <v>227403</v>
+      </c>
+      <c r="L19" s="1">
         <f>+L17+L18</f>
-        <v>98022</v>
-      </c>
-      <c r="M19" s="3">
+        <v>219730</v>
+      </c>
+      <c r="M19" s="1">
         <f>+M17+M18</f>
-        <v>97862</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>229896</v>
+      </c>
+      <c r="O19" s="1">
+        <f>+O17+O18</f>
+        <v>232774</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" ref="P19:S19" si="1">+S17+S18</f>
+        <v>293698</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <v>5144</v>
-      </c>
-      <c r="H20" s="3">
-        <f>17476-G20</f>
-        <v>12332</v>
-      </c>
-      <c r="I20" s="3">
-        <f>34908-H20-G20</f>
-        <v>17432</v>
+      <c r="G20" s="1">
+        <f>+G16-G19</f>
+        <v>68490</v>
+      </c>
+      <c r="H20" s="1">
+        <f>+H16-H19</f>
+        <v>68874</v>
+      </c>
+      <c r="I20" s="1">
+        <f>+I16-I19</f>
+        <v>76767</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="1">
-        <v>6867</v>
-      </c>
-      <c r="L20" s="3">
-        <f>24046-K20</f>
-        <v>17179</v>
+        <f t="shared" ref="K20" si="2">+K16-K19</f>
+        <v>65518</v>
+      </c>
+      <c r="L20" s="1">
+        <f>+L16-L19</f>
+        <v>97883</v>
       </c>
       <c r="M20" s="1">
-        <f>35399-L20-K20</f>
-        <v>11353</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+M16-M19</f>
+        <v>97862</v>
+      </c>
+      <c r="O20" s="1">
+        <f>+O16-O19</f>
+        <v>73269</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="P20:S20" si="3">+S16-S19</f>
+        <v>88290</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
-        <f>+G19-G20</f>
+        <f>403-27133+1457-1717+292</f>
+        <v>-26698</v>
+      </c>
+      <c r="H21" s="3">
+        <f>2847-37972+1888-2972+308-G21</f>
+        <v>-9203</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1">
+        <f>350+16291-38436+927-2396</f>
+        <v>-23264</v>
+      </c>
+      <c r="L21" s="3">
+        <f>16250-41743+4493-3904+1779-K21</f>
+        <v>139</v>
+      </c>
+      <c r="O21" s="1">
+        <f>4333-4495</f>
+        <v>-162</v>
+      </c>
+      <c r="S21" s="1">
+        <f>3776-2720</f>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <f>+G20+G21</f>
+        <v>41792</v>
+      </c>
+      <c r="H22" s="3">
+        <f>+H20+H21</f>
+        <v>59671</v>
+      </c>
+      <c r="I22" s="3">
+        <f>+I20+I21</f>
+        <v>76767</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <f>+K20+K21</f>
+        <v>42254</v>
+      </c>
+      <c r="L22" s="3">
+        <f>+L20+L21</f>
+        <v>98022</v>
+      </c>
+      <c r="M22" s="3">
+        <f>+M20+M21</f>
+        <v>97862</v>
+      </c>
+      <c r="O22" s="1">
+        <f>+O20+O21</f>
+        <v>73107</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" ref="P22:S22" si="4">+S20+S21</f>
+        <v>89346</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>5144</v>
+      </c>
+      <c r="H23" s="3">
+        <f>17476-G23</f>
+        <v>12332</v>
+      </c>
+      <c r="I23" s="3">
+        <f>34908-H23-G23</f>
+        <v>17432</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1">
+        <v>6867</v>
+      </c>
+      <c r="L23" s="3">
+        <f>24046-K23</f>
+        <v>17179</v>
+      </c>
+      <c r="M23" s="1">
+        <f>35399-L23-K23</f>
+        <v>11353</v>
+      </c>
+      <c r="O23" s="1">
+        <v>12892</v>
+      </c>
+      <c r="S23" s="1">
+        <v>13721</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <f>+G22-G23</f>
         <v>36648</v>
       </c>
-      <c r="H21" s="3">
-        <f>+H19-H20</f>
+      <c r="H24" s="3">
+        <f>+H22-H23</f>
         <v>47339</v>
       </c>
-      <c r="I21" s="3">
-        <f>+I19-I20</f>
+      <c r="I24" s="3">
+        <f>+I22-I23</f>
         <v>59335</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
-        <f>+K19-K20</f>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
+        <f>+K22-K23</f>
         <v>35387</v>
       </c>
-      <c r="L21" s="3">
-        <f>+L19-L20</f>
+      <c r="L24" s="3">
+        <f>+L22-L23</f>
         <v>80843</v>
       </c>
-      <c r="M21" s="3">
-        <f>+M19-M20</f>
+      <c r="M24" s="3">
+        <f>+M22-M23</f>
         <v>86509</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="O24" s="1">
+        <f>+O22-O23</f>
+        <v>60215</v>
+      </c>
+      <c r="S24" s="1">
+        <f>+S22-S23</f>
+        <v>75625</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="4">
-        <f>+K11/G11-1</f>
+      <c r="K26" s="4">
+        <f>+K14/G14-1</f>
         <v>0.17062454199538246</v>
       </c>
-      <c r="L23" s="4">
-        <f>+L11/H11-1</f>
+      <c r="L26" s="4">
+        <f>+L14/H14-1</f>
         <v>0.1685625900474006</v>
       </c>
-      <c r="M23" s="4">
-        <f>+M11/I11-1</f>
+      <c r="M26" s="4">
+        <f>+M14/I14-1</f>
         <v>0.18070499402572304</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="S26" s="4">
+        <f>+S14/O14-1</f>
+        <v>0.26169764527054062</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="4">
-        <f>+G13/G11</f>
+      <c r="G27" s="4">
+        <f>+G16/G14</f>
         <v>0.8091910603630923</v>
       </c>
-      <c r="H24" s="4">
-        <f>+H13/H11</f>
+      <c r="H27" s="4">
+        <f>+H16/H14</f>
         <v>0.8079859180457295</v>
       </c>
-      <c r="I24" s="4">
-        <f>+I13/I11</f>
+      <c r="I27" s="4">
+        <f>+I16/I14</f>
         <v>0.79638137904511386</v>
       </c>
-      <c r="K24" s="4">
-        <f>+K13/K11</f>
+      <c r="K27" s="4">
+        <f>+K16/K14</f>
         <v>0.76722866699319781</v>
       </c>
-      <c r="L24" s="4">
-        <f>+L13/L11</f>
+      <c r="L27" s="4">
+        <f>+L16/L14</f>
         <v>0.83495796463666616</v>
       </c>
-      <c r="M24" s="4">
-        <f>+M13/M11</f>
+      <c r="M27" s="4">
+        <f>+M16/M14</f>
         <v>0.81495350340643491</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+      <c r="O27" s="4">
+        <f>+O16/O14</f>
+        <v>0.81613643030480809</v>
+      </c>
+      <c r="S27" s="4">
+        <f>+S16/S14</f>
+        <v>0.80737396538750938</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" s="1">
-        <f>361073+31947+87952+14316</f>
-        <v>495288</v>
-      </c>
-      <c r="M26" s="1">
-        <f>381816+31480</f>
-        <v>413296</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="1">
-        <v>33981</v>
-      </c>
-      <c r="M27" s="1">
-        <v>31864</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" s="1">
-        <f>11022+96461</f>
-        <v>107483</v>
-      </c>
-      <c r="M28" s="1">
-        <v>93225</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1861,16 +2065,21 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" s="1">
-        <f>452485+26688</f>
-        <v>479173</v>
+        <f>361073+31947+87952+14316</f>
+        <v>495288</v>
       </c>
       <c r="M29" s="1">
-        <v>451275</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>381816+31480</f>
+        <v>413296</v>
+      </c>
+      <c r="S29" s="1">
+        <f>302928+35717+113422+19476</f>
+        <v>471543</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1881,15 +2090,19 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" s="1">
-        <v>168636</v>
+        <v>33981</v>
       </c>
       <c r="M30" s="1">
-        <v>163221</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>31864</v>
+      </c>
+      <c r="S30" s="1">
+        <f>45972</f>
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1900,15 +2113,20 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="L31" s="1">
-        <v>11823</v>
+        <f>11022+96461</f>
+        <v>107483</v>
       </c>
       <c r="M31" s="1">
-        <v>10910</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>93225</v>
+      </c>
+      <c r="S31" s="1">
+        <f>12336+54179</f>
+        <v>66515</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1919,17 +2137,20 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="L32" s="1">
-        <f>653629+353095</f>
-        <v>1006724</v>
+        <f>452485+26688</f>
+        <v>479173</v>
       </c>
       <c r="M32" s="1">
-        <f>324068+616538</f>
-        <v>940606</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>451275</v>
+      </c>
+      <c r="S32" s="1">
+        <f>587667+22041</f>
+        <v>609708</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1940,126 +2161,237 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="L33" s="1">
+        <v>168636</v>
+      </c>
+      <c r="M33" s="1">
+        <v>163221</v>
+      </c>
+      <c r="S33" s="1">
+        <v>256045</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="1">
+        <v>11823</v>
+      </c>
+      <c r="M34" s="1">
+        <v>10910</v>
+      </c>
+      <c r="S34" s="1">
+        <v>29214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="L35" s="1">
+        <f>653629+353095</f>
+        <v>1006724</v>
+      </c>
+      <c r="M35" s="1">
+        <f>324068+616538</f>
+        <v>940606</v>
+      </c>
+      <c r="S35" s="1">
+        <f>443674+1503157</f>
+        <v>1946831</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="L36" s="1">
         <v>280552</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M36" s="1">
         <v>269106</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+      <c r="S36" s="1">
+        <v>309686</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="1">
-        <f>SUM(L26:L33)</f>
+      <c r="L37" s="1">
+        <f>SUM(L29:L36)</f>
         <v>2583660</v>
       </c>
-      <c r="M34" s="1">
-        <f>SUM(M26:M33)</f>
+      <c r="M37" s="1">
+        <f>SUM(M29:M36)</f>
         <v>2373503</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="S37" s="1">
+        <f>SUM(S29:S36)</f>
+        <v>3735514</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L39" s="1">
         <v>1649518</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M39" s="1">
         <v>1570424</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+      <c r="S39" s="1">
+        <v>1676442</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L40" s="1">
         <v>369011</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M40" s="1">
         <v>360196</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="S40" s="1">
+        <v>503002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L41" s="1">
         <f>205611+82391</f>
         <v>288002</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M41" s="1">
         <f>148738+180413</f>
         <v>329151</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="S41" s="1">
+        <f>549596+105756+443061+104239</f>
+        <v>1202652</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L42" s="1">
         <f>14012+3653</f>
         <v>17665</v>
       </c>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+      <c r="M42" s="1"/>
+      <c r="S42" s="1">
+        <f>14140+9986</f>
+        <v>24126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L43" s="1">
         <f>26246+6104</f>
         <v>32350</v>
       </c>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+      <c r="M43" s="1"/>
+      <c r="S43" s="1">
+        <f>29687+222+45068</f>
+        <v>74977</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L44" s="1">
         <v>146533</v>
       </c>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+      <c r="M44" s="1"/>
+      <c r="S44" s="1">
+        <f>173146+8466</f>
+        <v>181612</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L45" s="1">
         <f>38641+5023</f>
         <v>43664</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M45" s="1">
         <v>37337</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="S45" s="1">
+        <v>47327</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L46" s="1">
         <v>36918</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M46" s="1">
         <v>37092</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+      <c r="S46" s="1">
+        <v>25377</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L44" s="1">
-        <f>SUM(L36:L43)</f>
+      <c r="L47" s="1">
+        <f>SUM(L39:L46)</f>
         <v>2583661</v>
       </c>
-      <c r="M44" s="1">
-        <f>SUM(M36:M43)</f>
+      <c r="M47" s="1">
+        <f>SUM(M39:M46)</f>
         <v>2334200</v>
       </c>
+      <c r="S47" s="1">
+        <f>SUM(S39:S46)</f>
+        <v>3735515</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{77393FF7-B448-4983-8B80-5E08ED6F4DCD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
